--- a/biology/Zoologie/Harryplax_severus/Harryplax_severus.xlsx
+++ b/biology/Zoologie/Harryplax_severus/Harryplax_severus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harryplax severus, unique représentant du genre Harryplax, est une espèce de crabes de la famille des Christmaplacidae[1]; découvert par Harry Conley dans les années 2000, dans l'Océan Pacifique au large de la côte de Guam. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harryplax severus, unique représentant du genre Harryplax, est une espèce de crabes de la famille des Christmaplacidae; découvert par Harry Conley dans les années 2000, dans l'Océan Pacifique au large de la côte de Guam. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Guam[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Guam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5,6 mm sur 7,9 mm et le mâle paratype 3,9 mm sur 5,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5,6 mm sur 7,9 mm et le mâle paratype 3,9 mm sur 5,4 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Harry T. Conley[2].
-Cette espèce est nommée en référence au personnage Severus Rogue de la série Harry Potter[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Harry T. Conley.
+Cette espèce est nommée en référence au personnage Severus Rogue de la série Harry Potter.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mendoza &amp; Ng, 2017 : Harryplax severus, a new genus and species of an unusual coral rubble-inhabiting crab from Guam (Crustacea, Brachyura, Christmaplacidae). ZooKeys, no 647, p. 23–35 (texte intégral).</t>
         </is>
